--- a/medicine/Psychotrope/Anchor_Brewhouse/Anchor_Brewhouse.xlsx
+++ b/medicine/Psychotrope/Anchor_Brewhouse/Anchor_Brewhouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Anchor Brewhouse (en français, littéralement : Brasserie de l'Ancre) était une petite brasserie londonienne située près de Tower Bridge à Londres. La brasserie a été achetée en décembre 1787 par John Courage. 
 Le bâtiment existe toujours, même si ce n’est plus une brasserie depuis longtemps : Boilerhouse, Brewhouse et Malt Mill montrent encore les différentes fonctions du processus de fabrication de la bière. Le bâtiment témoigne d'une continuité historique, le brassage sur le fleuve a toujours été une des caractéristiques importantes des rives de la Tamise à Londres. Le brassage à Southwark est déjà mentionné par Chaucer, et à Horselydown par Shakespeare. 
@@ -512,7 +524,9 @@
           <t>Usage actuel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment a été restauré et reconstruit en 1985-1989 et transformé en appartements résidentiels de luxe. C'est maintenant un bâtiment classé de Grade II situé dans la zone de conservation du Tower Bridge à Butler's Wharf. Le pub Anchor Tap qui était le robinet de la brasserie est toujours ouvert à proximité. 
 </t>
@@ -543,7 +557,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Diplôme de mérite Europa Nostra 1989
 Civic Trust Award 1991</t>
